--- a/src/main/webapp/学生每日打卡信息导出表.xlsx
+++ b/src/main/webapp/学生每日打卡信息导出表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -65,7 +65,7 @@
     <t>河南省周口市沈丘县</t>
   </si>
   <si>
-    <t>2020-04-16</t>
+    <t>2020-05-12</t>
   </si>
   <si>
     <t>否</t>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>36.9</t>
+  </si>
+  <si>
+    <t>201710913101</t>
+  </si>
+  <si>
+    <t>马金凤</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>河南省新乡市</t>
+  </si>
+  <si>
+    <t>36.7</t>
   </si>
 </sst>
 </file>
@@ -267,6 +282,102 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/学生每日打卡信息导出表.xlsx
+++ b/src/main/webapp/学生每日打卡信息导出表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -47,10 +47,10 @@
     <t>上报体温</t>
   </si>
   <si>
-    <t>201710913106</t>
-  </si>
-  <si>
-    <t>许路洋</t>
+    <t>201710913305</t>
+  </si>
+  <si>
+    <t>王永澳</t>
   </si>
   <si>
     <t>计算机学院</t>
@@ -59,40 +59,19 @@
     <t>计算机科学与技术</t>
   </si>
   <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>河南省周口市沈丘县</t>
-  </si>
-  <si>
-    <t>2020-05-12</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>河南省郑州市</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>201710913101</t>
-  </si>
-  <si>
-    <t>马金凤</t>
-  </si>
-  <si>
-    <t>1842</t>
-  </si>
-  <si>
-    <t>河南省新乡市</t>
-  </si>
-  <si>
-    <t>36.7</t>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>南校区 九号楼</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>37.0</t>
   </si>
 </sst>
 </file>
@@ -250,134 +229,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
